--- a/data/georgia_census/kakheti/yvareli/healthcare_staff.xlsx
+++ b/data/georgia_census/kakheti/yvareli/healthcare_staff.xlsx
@@ -1365,13 +1365,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B39B28E-DE7B-4A38-85DF-A6C0B1F0974C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBFA759-D7BD-43CC-8448-D9534B3AE262}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77C3D623-DB86-467B-9360-C3C01D581B0C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23D9FF35-989E-42F9-A1C3-234C5880566C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A5C79FB-5F09-40E6-9D21-51D878E23B15}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9011B09D-6CAC-4C10-A828-0CB47EC17A79}"/>
 </file>